--- a/data/sample-spring-kafka-microservices/payment-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/payment-service_structure.xlsx
@@ -190,25 +190,34 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
+    <t>repository</t>
+  </si>
+  <si>
     <t>template</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>org.springframework.kafka.core.KafkaTemplate</t>
   </si>
   <si>
     <t>SOURCE</t>
   </si>
   <si>
-    <t>LOG</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
-    <t>repository</t>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
   </si>
   <si>
     <t>factory</t>
@@ -217,25 +226,16 @@
     <t>org.springframework.kafka.core.ConsumerFactory</t>
   </si>
   <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
-  </si>
-  <si>
     <t>orderManageService</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>amountReserved</t>
+  </si>
+  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>amountReserved</t>
   </si>
   <si>
     <t>amountAvailable</t>
@@ -1757,7 +1757,7 @@
         <v>57</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -1785,7 +1785,7 @@
         <v>57</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -1810,10 +1810,10 @@
         <v>63</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -1821,13 +1821,13 @@
         <v>28</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -1835,13 +1835,13 @@
         <v>28</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1863,13 +1863,13 @@
         <v>28</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1877,13 +1877,13 @@
         <v>33</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -1905,7 +1905,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>57</v>
@@ -1925,7 +1925,7 @@
         <v>57</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -1939,7 +1939,7 @@
         <v>57</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -1953,7 +1953,7 @@
         <v>57</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">

--- a/data/sample-spring-kafka-microservices/payment-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/payment-service_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="94">
   <si>
     <t>Class Name</t>
   </si>
@@ -190,57 +192,57 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
     <t>LOG</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>repository</t>
-  </si>
-  <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
+    <t>factory</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.ConsumerFactory</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
   </si>
   <si>
     <t>customer</t>
   </si>
   <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
-  </si>
-  <si>
-    <t>factory</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.ConsumerFactory</t>
-  </si>
-  <si>
     <t>orderManageService</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>amountAvailable</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>amountReserved</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>amountAvailable</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -284,6 +286,24 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -1683,6 +1703,316 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D1"/>
@@ -1771,7 +2101,7 @@
         <v>57</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -1779,13 +2109,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -1793,13 +2123,13 @@
         <v>28</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
@@ -1807,13 +2137,13 @@
         <v>28</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -1835,13 +2165,13 @@
         <v>28</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -1849,13 +2179,13 @@
         <v>28</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -1863,13 +2193,13 @@
         <v>28</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -1877,13 +2207,13 @@
         <v>33</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">

--- a/data/sample-spring-kafka-microservices/payment-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/payment-service_structure.xlsx
@@ -192,21 +192,21 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>template</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>org.springframework.kafka.core.KafkaTemplate</t>
   </si>
   <si>
     <t>repository</t>
   </si>
   <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
     <t>LOG</t>
   </si>
   <si>
@@ -219,28 +219,28 @@
     <t>org.springframework.kafka.core.ConsumerFactory</t>
   </si>
   <si>
+    <t>customer</t>
+  </si>
+  <si>
     <t>kafka</t>
   </si>
   <si>
     <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
   </si>
   <si>
-    <t>customer</t>
-  </si>
-  <si>
     <t>orderManageService</t>
   </si>
   <si>
+    <t>amountAvailable</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>amountReserved</t>
+  </si>
+  <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>amountAvailable</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>amountReserved</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -2073,7 +2073,7 @@
         <v>57</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -2081,13 +2081,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -2101,7 +2101,7 @@
         <v>57</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -2137,13 +2137,13 @@
         <v>28</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -2151,13 +2151,13 @@
         <v>28</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -2165,13 +2165,13 @@
         <v>28</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -2179,13 +2179,13 @@
         <v>28</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -2193,13 +2193,13 @@
         <v>28</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>30</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -2235,7 +2235,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>57</v>
@@ -2255,7 +2255,7 @@
         <v>57</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -2269,7 +2269,7 @@
         <v>57</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -2283,7 +2283,7 @@
         <v>57</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -2297,7 +2297,7 @@
         <v>57</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/payment-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/payment-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="106">
   <si>
     <t>Class Name</t>
   </si>
@@ -192,12 +192,18 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
     <t>SOURCE</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>template</t>
   </si>
   <si>
@@ -207,10 +213,13 @@
     <t>repository</t>
   </si>
   <si>
-    <t>LOG</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
+  </si>
+  <si>
+    <t>customer</t>
   </si>
   <si>
     <t>factory</t>
@@ -219,30 +228,21 @@
     <t>org.springframework.kafka.core.ConsumerFactory</t>
   </si>
   <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
-  </si>
-  <si>
     <t>orderManageService</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>amountAvailable</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>amountReserved</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -291,19 +291,55 @@
     <t>Number of Lines</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>37</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>8</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>OrderManageService(pl.piomin.payment.repository.CustomerRepository, org.springframework.kafka.core.KafkaTemplate)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>PaymentAppTest()</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>PaymentComponentTests()</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>PaymentApp()</t>
+  </si>
+  <si>
+    <t>Customer()</t>
+  </si>
+  <si>
+    <t>Customer(java.lang.Long, java.lang.String, int, int)</t>
+  </si>
+  <si>
+    <t>KafkaContainerDevMode()</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1792,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -1782,7 +1818,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1807,7 +1843,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
@@ -1818,40 +1854,40 @@
         <v>14</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -1859,87 +1895,87 @@
         <v>28</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -1947,10 +1983,10 @@
         <v>36</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
@@ -1958,10 +1994,10 @@
         <v>36</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -1969,10 +2005,10 @@
         <v>36</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
@@ -1980,10 +2016,10 @@
         <v>36</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
@@ -1991,20 +2027,97 @@
         <v>36</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B26" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C26" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s" s="0">
         <v>92</v>
       </c>
     </row>
@@ -2073,7 +2186,7 @@
         <v>57</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -2081,13 +2194,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -2101,7 +2214,7 @@
         <v>57</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -2109,13 +2222,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -2137,13 +2250,13 @@
         <v>28</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -2151,13 +2264,13 @@
         <v>28</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -2165,13 +2278,13 @@
         <v>28</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>57</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -2193,7 +2306,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>30</v>
@@ -2207,13 +2320,13 @@
         <v>33</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -2221,13 +2334,13 @@
         <v>33</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -2235,7 +2348,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>57</v>
@@ -2255,7 +2368,7 @@
         <v>57</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -2269,7 +2382,7 @@
         <v>57</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2297,7 +2410,7 @@
         <v>57</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/payment-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/payment-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="107">
   <si>
     <t>Class Name</t>
   </si>
@@ -300,7 +300,7 @@
     <t>24</t>
   </si>
   <si>
-    <t>0</t>
+    <t>39</t>
   </si>
   <si>
     <t>16</t>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>Customer(java.lang.Long, java.lang.String, int, int)</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>KafkaContainerDevMode()</t>
@@ -1808,7 +1811,7 @@
         <v>49</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1887,7 +1890,7 @@
         <v>97</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1931,7 +1934,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -1975,7 +1978,7 @@
         <v>102</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -1986,7 +1989,7 @@
         <v>40</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -1997,7 +2000,7 @@
         <v>45</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -2008,7 +2011,7 @@
         <v>43</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -2019,7 +2022,7 @@
         <v>37</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -2030,7 +2033,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -2041,7 +2044,7 @@
         <v>38</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -2052,7 +2055,7 @@
         <v>42</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -2063,7 +2066,7 @@
         <v>44</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
@@ -2074,7 +2077,7 @@
         <v>12</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -2085,7 +2088,7 @@
         <v>103</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -2096,7 +2099,7 @@
         <v>104</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
@@ -2115,10 +2118,10 @@
         <v>46</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/payment-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/payment-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="105">
   <si>
     <t>Class Name</t>
   </si>
@@ -75,6 +75,9 @@
     <t>java.lang.Class</t>
   </si>
   <si>
+    <t>OrderManageService(pl.piomin.payment.repository.CustomerRepository, org.springframework.kafka.core.KafkaTemplate)</t>
+  </si>
+  <si>
     <t>notifyAll()</t>
   </si>
   <si>
@@ -108,6 +111,9 @@
     <t>main(java.lang.String[])</t>
   </si>
   <si>
+    <t>PaymentAppTest()</t>
+  </si>
+  <si>
     <t>pl.piomin.payment.PaymentComponentTests</t>
   </si>
   <si>
@@ -123,6 +129,9 @@
     <t>eventReject()</t>
   </si>
   <si>
+    <t>PaymentComponentTests()</t>
+  </si>
+  <si>
     <t>pl.piomin.payment.PaymentApp</t>
   </si>
   <si>
@@ -132,6 +141,9 @@
     <t>generateData()</t>
   </si>
   <si>
+    <t>PaymentApp()</t>
+  </si>
+  <si>
     <t>pl.piomin.payment.domain.Customer</t>
   </si>
   <si>
@@ -141,6 +153,9 @@
     <t>setAmountAvailable(int)</t>
   </si>
   <si>
+    <t>Customer()</t>
+  </si>
+  <si>
     <t>getAmountAvailable()</t>
   </si>
   <si>
@@ -159,6 +174,9 @@
     <t>setAmountReserved(int)</t>
   </si>
   <si>
+    <t>Customer(java.lang.Long, java.lang.String, int, int)</t>
+  </si>
+  <si>
     <t>setId(java.lang.Long)</t>
   </si>
   <si>
@@ -171,6 +189,9 @@
     <t>org.testcontainers.containers.KafkaContainer</t>
   </si>
   <si>
+    <t>KafkaContainerDevMode()</t>
+  </si>
+  <si>
     <t>pl.piomin.payment.repository.CustomerRepository</t>
   </si>
   <si>
@@ -192,25 +213,34 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
+    <t>repository</t>
+  </si>
+  <si>
     <t>LOG</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
     <t>SOURCE</t>
   </si>
   <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
-    <t>repository</t>
+    <t>factory</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.ConsumerFactory</t>
+  </si>
+  <si>
+    <t>customer</t>
   </si>
   <si>
     <t>kafka</t>
@@ -219,30 +249,21 @@
     <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
   </si>
   <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>factory</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.ConsumerFactory</t>
-  </si>
-  <si>
     <t>orderManageService</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>amountAvailable</t>
+  </si>
+  <si>
+    <t>amountReserved</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>amountAvailable</t>
-  </si>
-  <si>
-    <t>amountReserved</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -309,40 +330,13 @@
     <t>13</t>
   </si>
   <si>
-    <t>OrderManageService(pl.piomin.payment.repository.CustomerRepository, org.springframework.kafka.core.KafkaTemplate)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>PaymentAppTest()</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>PaymentComponentTests()</t>
-  </si>
-  <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>PaymentApp()</t>
-  </si>
-  <si>
-    <t>Customer()</t>
-  </si>
-  <si>
-    <t>Customer(java.lang.Long, java.lang.String, int, int)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>KafkaContainerDevMode()</t>
   </si>
 </sst>
 </file>
@@ -387,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -516,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -524,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>20</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -583,49 +577,49 @@
         <v>24</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>26</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>9</v>
@@ -633,7 +627,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>12</v>
@@ -647,24 +641,24 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>6</v>
@@ -675,52 +669,52 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>6</v>
@@ -731,24 +725,24 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>6</v>
@@ -759,27 +753,27 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s" s="0">
         <v>9</v>
@@ -787,27 +781,27 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s" s="0">
         <v>9</v>
@@ -815,41 +809,41 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s" s="0">
         <v>32</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>30</v>
       </c>
       <c r="D33" t="s" s="0">
         <v>9</v>
@@ -857,38 +851,38 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>6</v>
@@ -899,24 +893,24 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
@@ -927,10 +921,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
@@ -941,41 +935,41 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s" s="0">
         <v>9</v>
@@ -983,41 +977,41 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s" s="0">
         <v>9</v>
@@ -1025,38 +1019,38 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>6</v>
@@ -1067,10 +1061,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>6</v>
@@ -1081,24 +1075,24 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
@@ -1109,10 +1103,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>6</v>
@@ -1123,10 +1117,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>6</v>
@@ -1137,16 +1131,16 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -1154,7 +1148,7 @@
         <v>36</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>6</v>
@@ -1168,13 +1162,13 @@
         <v>36</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -1182,10 +1176,10 @@
         <v>36</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s" s="0">
         <v>9</v>
@@ -1196,21 +1190,21 @@
         <v>36</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>6</v>
@@ -1221,27 +1215,27 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s" s="0">
         <v>9</v>
@@ -1249,24 +1243,24 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
@@ -1277,63 +1271,63 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>21</v>
@@ -1347,7 +1341,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B69" t="s" s="0">
         <v>44</v>
@@ -1356,88 +1350,88 @@
         <v>6</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s" s="0">
         <v>9</v>
@@ -1445,10 +1439,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>6</v>
@@ -1459,105 +1453,105 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B84" t="s" s="0">
         <v>18</v>
@@ -1566,46 +1560,46 @@
         <v>6</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B85" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s" s="0">
         <v>20</v>
-      </c>
-      <c r="C85" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D85" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s" s="0">
         <v>9</v>
@@ -1613,38 +1607,38 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>6</v>
@@ -1655,10 +1649,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>6</v>
@@ -1669,41 +1663,41 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s" s="0">
         <v>9</v>
@@ -1711,29 +1705,127 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B96" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C96" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D96" t="s" s="0">
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s" s="0">
         <v>9</v>
       </c>
     </row>
@@ -1755,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -1763,55 +1855,55 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +1913,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1835,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -1846,7 +1938,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1857,271 +1949,194 @@
         <v>14</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>32</v>
-      </c>
       <c r="C8" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2139,13 +2154,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>3</v>
@@ -2169,13 +2184,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
@@ -2183,13 +2198,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -2197,13 +2212,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -2211,13 +2226,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -2225,108 +2240,108 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>65</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>4</v>
@@ -2334,86 +2349,86 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>56</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2431,19 +2446,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
@@ -2454,21 +2469,21 @@
         <v>14</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>4</v>
@@ -2477,7 +2492,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -2488,30 +2503,30 @@
         <v>14</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -2522,30 +2537,30 @@
         <v>8</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -2556,13 +2571,13 @@
         <v>14</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -2573,21 +2588,21 @@
         <v>8</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>4</v>
@@ -2596,41 +2611,41 @@
         <v>8</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -2641,30 +2656,30 @@
         <v>14</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
@@ -2675,13 +2690,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -2692,13 +2707,13 @@
         <v>8</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
@@ -2709,13 +2724,13 @@
         <v>8</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
@@ -2726,13 +2741,13 @@
         <v>14</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -2743,13 +2758,13 @@
         <v>8</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -2760,13 +2775,13 @@
         <v>8</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2784,19 +2799,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2814,19 +2829,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>84</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2844,19 +2859,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>84</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2874,19 +2889,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2904,19 +2919,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/payment-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/payment-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="106">
   <si>
     <t>Class Name</t>
   </si>
@@ -225,13 +225,19 @@
     <t>repository</t>
   </si>
   <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
     <t>LOG</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>SOURCE</t>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
   </si>
   <si>
     <t>factory</t>
@@ -243,27 +249,21 @@
     <t>customer</t>
   </si>
   <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.test.EmbeddedKafkaBroker</t>
-  </si>
-  <si>
     <t>orderManageService</t>
   </si>
   <si>
+    <t>amountAvailable</t>
+  </si>
+  <si>
+    <t>amountReserved</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>amountAvailable</t>
-  </si>
-  <si>
-    <t>amountReserved</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>39</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>16</t>
@@ -1913,7 +1916,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1935,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>100</v>
@@ -1946,7 +1949,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>101</v>
@@ -1954,35 +1957,35 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
@@ -1990,29 +1993,29 @@
         <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>104</v>
@@ -2020,10 +2023,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>104</v>
@@ -2031,21 +2034,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>97</v>
@@ -2053,24 +2056,24 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
@@ -2078,7 +2081,7 @@
         <v>40</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>97</v>
@@ -2089,7 +2092,7 @@
         <v>40</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>97</v>
@@ -2100,7 +2103,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>97</v>
@@ -2111,7 +2114,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>97</v>
@@ -2122,7 +2125,7 @@
         <v>40</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>97</v>
@@ -2130,12 +2133,67 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B24" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C25" t="s" s="0">
         <v>97</v>
       </c>
     </row>
@@ -2232,7 +2290,7 @@
         <v>64</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -2240,13 +2298,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -2254,13 +2312,13 @@
         <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -2268,13 +2326,13 @@
         <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -2282,13 +2340,13 @@
         <v>30</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -2299,10 +2357,10 @@
         <v>72</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -2310,13 +2368,13 @@
         <v>30</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -2324,13 +2382,13 @@
         <v>30</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -2338,13 +2396,13 @@
         <v>36</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -2352,13 +2410,13 @@
         <v>36</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -2366,13 +2424,13 @@
         <v>36</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -2386,7 +2444,7 @@
         <v>64</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -2414,7 +2472,7 @@
         <v>64</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -2428,7 +2486,7 @@
         <v>64</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/payment-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/payment-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="105">
   <si>
     <t>Class Name</t>
   </si>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>39</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>16</t>
@@ -1916,7 +1913,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1938,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>100</v>
@@ -1949,7 +1946,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>101</v>
@@ -1957,35 +1954,35 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
@@ -1993,29 +1990,29 @@
         <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>104</v>
@@ -2023,10 +2020,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>104</v>
@@ -2034,21 +2031,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>97</v>
@@ -2056,24 +2053,24 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -2081,7 +2078,7 @@
         <v>40</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>97</v>
@@ -2092,7 +2089,7 @@
         <v>40</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>97</v>
@@ -2103,7 +2100,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>97</v>
@@ -2114,7 +2111,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>97</v>
@@ -2125,7 +2122,7 @@
         <v>40</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>97</v>
@@ -2133,67 +2130,12 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s" s="0">
         <v>97</v>
       </c>
     </row>

--- a/data/sample-spring-kafka-microservices/payment-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/payment-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="106">
   <si>
     <t>Class Name</t>
   </si>
@@ -213,27 +213,27 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>template</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>org.springframework.kafka.core.KafkaTemplate</t>
   </si>
   <si>
-    <t>repository</t>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
   </si>
   <si>
     <t>SOURCE</t>
   </si>
   <si>
-    <t>LOG</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
     <t>kafka</t>
   </si>
   <si>
@@ -255,15 +255,15 @@
     <t>amountAvailable</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>amountReserved</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>39</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>16</t>
@@ -1903,7 +1906,7 @@
         <v>56</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1941,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
@@ -1949,7 +1952,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -1971,7 +1974,7 @@
         <v>31</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6">
@@ -1982,7 +1985,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
@@ -1993,7 +1996,7 @@
         <v>33</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -2015,7 +2018,7 @@
         <v>37</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -2026,7 +2029,7 @@
         <v>38</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -2204,7 +2207,7 @@
         <v>64</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -2212,13 +2215,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -2232,7 +2235,7 @@
         <v>64</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -2240,13 +2243,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -2254,13 +2257,13 @@
         <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -2268,13 +2271,13 @@
         <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -2282,13 +2285,13 @@
         <v>30</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -2296,13 +2299,13 @@
         <v>30</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -2310,13 +2313,13 @@
         <v>30</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -2324,13 +2327,13 @@
         <v>30</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -2338,13 +2341,13 @@
         <v>36</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -2352,13 +2355,13 @@
         <v>36</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -2366,13 +2369,13 @@
         <v>36</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -2400,7 +2403,7 @@
         <v>64</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -2428,7 +2431,7 @@
         <v>64</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
